--- a/Documents/Таблицы ИДС/field cars_way_cars_outer_way.xlsx
+++ b/Documents/Таблицы ИДС/field cars_way_cars_outer_way.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Таблицы ИДС\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E177A4-3711-4A56-A8F3-6B53D5086F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B41D585-6C41-4306-A2FB-B9CA88742760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39FA88B8-EB3D-4C23-91F1-4ECABD94327A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$1:$B$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$C$1:$C$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$A$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="261">
   <si>
     <t>wir_id</t>
   </si>
@@ -813,6 +813,15 @@
   </si>
   <si>
     <t>arrival_division_amkr_abbr</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -1201,1029 +1210,1982 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2377B2-614D-48D6-9269-9AD3F76ED557}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>114</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>80</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>81</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>112</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" t="s">
+        <v>259</v>
+      </c>
+      <c r="D75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C78" t="s">
+        <v>259</v>
+      </c>
+      <c r="D78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" t="s">
+        <v>259</v>
+      </c>
+      <c r="D79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" t="s">
+        <v>259</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" t="s">
+        <v>259</v>
+      </c>
+      <c r="D89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" t="s">
+        <v>259</v>
+      </c>
+      <c r="D92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C93" t="s">
+        <v>259</v>
+      </c>
+      <c r="D93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" t="s">
+        <v>259</v>
+      </c>
+      <c r="D94" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C105" t="s">
+        <v>259</v>
+      </c>
+      <c r="D105" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C106" t="s">
+        <v>259</v>
+      </c>
+      <c r="D106" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C107" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" t="s">
+        <v>259</v>
+      </c>
+      <c r="D109" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C113" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C116" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" t="s">
+        <v>259</v>
+      </c>
+      <c r="D117" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D118" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" t="s">
+        <v>259</v>
+      </c>
+      <c r="D119" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C120" t="s">
+        <v>259</v>
+      </c>
+      <c r="D120" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C121" t="s">
+        <v>259</v>
+      </c>
+      <c r="D121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+      <c r="D126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B168" xr:uid="{221B9C4C-B6E7-4CD3-B262-E4685018A498}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B168">
-      <sortCondition ref="B1:B168"/>
+  <autoFilter ref="C1:C168" xr:uid="{221B9C4C-B6E7-4CD3-B262-E4685018A498}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C168">
+      <sortCondition ref="C1:C168"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
